--- a/Semantic_Analysis/Result/Query_vs_Document_Similarity/Query_vs_Document_Similarity_Result.xlsx
+++ b/Semantic_Analysis/Result/Query_vs_Document_Similarity/Query_vs_Document_Similarity_Result.xlsx
@@ -5,16 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amman\Desktop\Result\Query_vs_Document_Similarity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master_Of_Engg_IT\SE Project\Aman-Patel\semantic-analysis\Semantic_Analysis\Result\Query_vs_Document_Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CED1A4-87DF-4775-BFB8-7E9001B9F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BE9F89-5BDA-487E-B24A-6D64115E5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,15 +63,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,13 +85,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,13 +163,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Topic : Machine Learning</a:t>
+              <a:t>Query Vs Document</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t>  </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -200,7 +223,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -209,23 +234,81 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A1E2-4478-ADEB-F95565A9A9E2}"/>
+                <c16:uniqueId val="{00000001-FAC9-4918-986B-7B5EB50168CF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$B$3</c15:sqref>
+                    <c15:sqref>'[2]Query Vs Document'!$A$2:$B$3</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Sheet1!$A$2:$A$3</c15:sqref>
+                    <c15:sqref>'[2]Query Vs Document'!$A$2:$A$3</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>'[2]Query Vs Document'!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -239,7 +322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:f>'[2]Query Vs Document'!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -254,13 +337,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1E2-4478-ADEB-F95565A9A9E2}"/>
+              <c16:uniqueId val="{00000002-FAC9-4918-986B-7B5EB50168CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -268,11 +352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1674145951"/>
-        <c:axId val="1674132511"/>
+        <c:axId val="321865616"/>
+        <c:axId val="321853616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1674145951"/>
+        <c:axId val="321865616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674132511"/>
+        <c:crossAx val="321853616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1674132511"/>
+        <c:axId val="321853616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674145951"/>
+        <c:crossAx val="321865616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -970,27 +1054,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3223260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E79C27-EBD5-82F5-9A84-67C04C96E8BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327607A2-C6BE-4326-B4DB-2173D607DE37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1005,6 +1091,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Query Vs Document"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Words Vs Categories"/>
+      <sheetName val="Job Skill Vs Resume"/>
+      <sheetName val="Document Vs Document"/>
+      <sheetName val="Document Vs Words"/>
+      <sheetName val="Query Vs Document"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Machine learning and AI implementations in education.</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v xml:space="preserve">Topic : Machine Learning </v>
+          </cell>
+          <cell r="C2">
+            <v>0.54563131769999995</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Water is made up oxygen and hydrogen.</v>
+          </cell>
+          <cell r="C3">
+            <v>0.15498048179999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Query Vs Document"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,7 +1429,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,33 +1440,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.54563131769999995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
         <v>0.15498048179999999</v>
       </c>
     </row>
